--- a/target/test-classes/ULKELER.xlsx
+++ b/target/test-classes/ULKELER.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isimsiz\Documents\ExelDosya\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ULKELER</t>
   </si>
@@ -132,12 +132,22 @@
   </si>
   <si>
     <t>Asado</t>
+  </si>
+  <si>
+    <t>NÜFUS</t>
+  </si>
+  <si>
+    <t>80000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303FAEA0-B941-4376-AAA5-E80E2FE5FEA9}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
@@ -516,22 +526,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="D1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -543,6 +542,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
